--- a/Timpi Sortare.xlsx
+++ b/Timpi Sortare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>TIMPI SORTARI</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">    -</t>
   </si>
   <si>
-    <t>(nu stiu de ce, dar 4 milioane il omoara)</t>
-  </si>
-  <si>
     <t>Teste Random, 100-200k</t>
   </si>
   <si>
@@ -85,10 +82,19 @@
     <t>CRAPA</t>
   </si>
   <si>
-    <t>Cezare, ai facut-o de oaie cu radixSortul, crapa pe teste de jucarie, de 150k</t>
-  </si>
-  <si>
     <t>(nu va lucra pe acest batch, e n^2)</t>
+  </si>
+  <si>
+    <t>Radix Sort, baza 10</t>
+  </si>
+  <si>
+    <t>(radixSort e in pluton, pe testele mici)</t>
+  </si>
+  <si>
+    <t>Teste "aproape" sortate 200k-500k</t>
+  </si>
+  <si>
+    <t>Teste Random, 1-3M</t>
   </si>
 </sst>
 </file>
@@ -98,13 +104,17 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,12 +137,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -443,23 +461,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21">
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="3" spans="2:21">
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
     </row>
     <row r="4" spans="2:21">
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="6" spans="2:21">
       <c r="C6" t="s">
@@ -494,6 +512,12 @@
       <c r="E7">
         <v>0.159</v>
       </c>
+      <c r="F7">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G7">
+        <v>9.1999999999999998E-2</v>
+      </c>
     </row>
     <row r="8" spans="2:21">
       <c r="B8" t="s">
@@ -508,10 +532,16 @@
       <c r="E8">
         <v>6.8000000000000005E-2</v>
       </c>
+      <c r="F8">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G8">
+        <v>4.5999999999999999E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:21">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>3.9E-2</v>
@@ -522,10 +552,16 @@
       <c r="E9">
         <v>5.0999999999999997E-2</v>
       </c>
+      <c r="F9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G9">
+        <v>3.2000000000000001E-2</v>
+      </c>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>3.5999999999999997E-2</v>
@@ -535,6 +571,12 @@
       </c>
       <c r="E10">
         <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F10">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="2:21">
@@ -557,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:21">
@@ -580,7 +622,7 @@
         <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:21">
@@ -596,28 +638,34 @@
       <c r="E13">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="F13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="14" spans="2:21">
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>0.05</v>
+      </c>
+      <c r="D14">
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G14">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:21">
@@ -633,14 +681,17 @@
       <c r="E15">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="M15" t="s">
-        <v>16</v>
+      <c r="F15">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G15">
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -656,24 +707,358 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C3:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:7">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="D8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.0306999999999999</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.8117999999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.3113999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.4371</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.71860000000000002</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1.2028000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.74980000000000002</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.2497</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>6.2399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.54669999999999996</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.65610000000000002</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.98409999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.76539999999999997</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.1716</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="E5:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C3:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8">
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.31290000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.48420000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.73419999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>0.1249</v>
+      </c>
+      <c r="E7">
+        <v>0.10929999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.18740000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="E8">
+        <v>2.7237</v>
+      </c>
+      <c r="F8">
+        <v>2.3231999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.14050000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="E14">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="F14">
+        <v>9.3700000000000006E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>